--- a/data/trans_orig/P1404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B075D761-28F1-4394-B14F-3FE3C94ED380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{627DF565-277E-443A-BAF0-026C8F408F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E78FFDC7-2DF8-4056-8DD7-DC392556574C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DCA26FA-C125-4B4D-B951-D87FFD37346B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="524">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,19 +98,19 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,7 +119,7 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,2%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -128,7 +128,7 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -137,10 +137,10 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,16 +164,16 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -182,13 +182,13 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -197,16 +197,16 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -224,1405 +224,1393 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>15,82%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>28,05%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>84,18%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B337935-1201-42F7-97CA-16624672F4C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456BF9AC-A330-4C3E-B0B0-30DBBC49B1A4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3523,7 +3511,7 @@
         <v>5909</v>
       </c>
       <c r="N30" s="7">
-        <v>6047847</v>
+        <v>6047848</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>158</v>
@@ -3574,7 +3562,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -3610,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DDE48F-5B68-4346-9A74-A0B1F177E124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D377A2-5E3A-40C0-B944-C021ABE3A3D8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4024,10 +4012,10 @@
         <v>180</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4030,13 @@
         <v>671306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -4057,13 +4045,13 @@
         <v>602307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>1217</v>
@@ -4072,13 +4060,13 @@
         <v>1273613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4185,13 @@
         <v>39460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4212,13 +4200,13 @@
         <v>27821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4227,13 +4215,13 @@
         <v>67282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4236,13 @@
         <v>642403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>639</v>
@@ -4263,13 +4251,13 @@
         <v>681753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
@@ -4278,13 +4266,13 @@
         <v>1324155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4373,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4388,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4391,13 @@
         <v>56160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4418,13 +4406,13 @@
         <v>76240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -4433,13 +4421,13 @@
         <v>132400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4442,13 @@
         <v>557048</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>472</v>
@@ -4469,13 +4457,13 @@
         <v>538024</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>968</v>
@@ -4484,13 +4472,13 @@
         <v>1095072</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4609,13 +4597,13 @@
         <v>83233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -4624,13 +4612,13 @@
         <v>115465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -4639,13 +4627,13 @@
         <v>198699</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4648,13 @@
         <v>346196</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -4675,13 +4663,13 @@
         <v>332335</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>619</v>
@@ -4690,13 +4678,13 @@
         <v>678530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4815,13 +4803,13 @@
         <v>194039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -4830,13 +4818,13 @@
         <v>261431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -4845,13 +4833,13 @@
         <v>455469</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4854,13 @@
         <v>365598</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>450</v>
@@ -4881,13 +4869,13 @@
         <v>481544</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>781</v>
@@ -4896,13 +4884,13 @@
         <v>847143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5009,13 @@
         <v>388674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H29" s="7">
         <v>452</v>
@@ -5036,13 +5024,13 @@
         <v>490840</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M29" s="7">
         <v>802</v>
@@ -5051,13 +5039,13 @@
         <v>879514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5060,13 @@
         <v>3036696</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H30" s="7">
         <v>2844</v>
@@ -5087,13 +5075,13 @@
         <v>3064258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M30" s="7">
         <v>5702</v>
@@ -5102,13 +5090,13 @@
         <v>6100955</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F1E4AD-6174-423A-BC3D-A3A6706F703D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E8F685-D680-44A5-BBF7-0CF76A04C2A3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5203,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,7 +5319,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5367,7 +5355,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5382,7 +5370,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5397,7 +5385,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5403,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -5430,7 +5418,7 @@
         <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>30</v>
@@ -5442,10 +5430,10 @@
         <v>813271</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>30</v>
@@ -5537,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5567,13 +5555,13 @@
         <v>12463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5582,13 +5570,13 @@
         <v>8659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -5600,10 +5588,10 @@
         <v>180</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5606,13 @@
         <v>578033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>570</v>
@@ -5633,13 +5621,13 @@
         <v>554885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>1126</v>
@@ -5648,13 +5636,13 @@
         <v>1132918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5716,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5773,13 +5761,13 @@
         <v>30511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5788,13 +5776,13 @@
         <v>17826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -5803,13 +5791,13 @@
         <v>48338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5812,13 @@
         <v>638586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -5839,13 +5827,13 @@
         <v>643560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>1257</v>
@@ -5854,13 +5842,13 @@
         <v>1282145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5979,13 +5967,13 @@
         <v>64925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5994,13 +5982,13 @@
         <v>69059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -6009,13 +5997,13 @@
         <v>133984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6018,13 @@
         <v>581123</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -6045,28 +6033,28 @@
         <v>580018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M18" s="7">
         <v>1058</v>
       </c>
       <c r="N18" s="7">
-        <v>1161141</v>
+        <v>1161142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,7 +6096,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -6155,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6185,13 +6173,13 @@
         <v>94827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -6200,13 +6188,13 @@
         <v>119463</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -6215,13 +6203,13 @@
         <v>214289</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6224,13 @@
         <v>383091</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>330</v>
@@ -6251,13 +6239,13 @@
         <v>377386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>671</v>
@@ -6266,13 +6254,13 @@
         <v>760478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6379,13 @@
         <v>185016</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
         <v>213</v>
@@ -6406,13 +6394,13 @@
         <v>253441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -6421,13 +6409,13 @@
         <v>438457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6430,13 @@
         <v>406312</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>442</v>
@@ -6457,13 +6445,13 @@
         <v>524490</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>870</v>
@@ -6472,13 +6460,13 @@
         <v>930802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6585,13 @@
         <v>388798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H29" s="7">
         <v>411</v>
@@ -6612,13 +6600,13 @@
         <v>469338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M29" s="7">
         <v>792</v>
@@ -6627,13 +6615,13 @@
         <v>858136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6636,13 @@
         <v>3005552</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H30" s="7">
         <v>2927</v>
@@ -6663,13 +6651,13 @@
         <v>3075204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M30" s="7">
         <v>5777</v>
@@ -6678,13 +6666,13 @@
         <v>6080756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC9758E-354C-4678-A4DF-35B3794D7961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374CD39-4DDA-4C04-B4E8-14CE1AFB8B59}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6779,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6892,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6907,7 +6895,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6922,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6931,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6952,13 +6940,13 @@
         <v>6032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6967,13 +6955,13 @@
         <v>6032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,7 +6979,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>34</v>
@@ -7003,13 +6991,13 @@
         <v>348925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -7018,13 +7006,13 @@
         <v>726604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7107,13 +7095,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7122,13 +7110,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7131,13 @@
         <v>6095</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -7158,13 +7146,13 @@
         <v>11205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -7173,13 +7161,13 @@
         <v>17301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7182,13 @@
         <v>422301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>449</v>
@@ -7209,13 +7197,13 @@
         <v>487372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>747</v>
@@ -7224,13 +7212,13 @@
         <v>909673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,7 +7292,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7313,13 +7301,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7328,13 +7316,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7337,13 @@
         <v>27396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -7364,13 +7352,13 @@
         <v>7467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>422</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -7379,13 +7367,13 @@
         <v>34863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7388,13 @@
         <v>527392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>828</v>
@@ -7415,13 +7403,13 @@
         <v>575290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1345</v>
@@ -7430,13 +7418,13 @@
         <v>1102682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7507,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7540,7 +7528,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7543,13 @@
         <v>90738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -7570,13 +7558,13 @@
         <v>81175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>334</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -7585,10 +7573,10 @@
         <v>171914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>459</v>
@@ -7606,13 +7594,13 @@
         <v>633252</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>1025</v>
@@ -7621,28 +7609,28 @@
         <v>664833</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>1601</v>
       </c>
       <c r="N18" s="7">
-        <v>1298085</v>
+        <v>1298084</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,7 +7672,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1470406</v>
+        <v>1470405</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -7725,13 +7713,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7740,13 +7728,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>472</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7749,13 @@
         <v>140846</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H21" s="7">
         <v>253</v>
@@ -7776,13 +7764,13 @@
         <v>146771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>474</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M21" s="7">
         <v>412</v>
@@ -7791,13 +7779,13 @@
         <v>287617</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7800,13 @@
         <v>457196</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>745</v>
@@ -7827,13 +7815,13 @@
         <v>445978</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>1247</v>
@@ -7842,13 +7830,13 @@
         <v>903175</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,7 +7925,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7952,7 +7940,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7955,13 @@
         <v>228447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>676</v>
@@ -7982,13 +7970,13 @@
         <v>462284</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>1025</v>
@@ -7997,13 +7985,13 @@
         <v>690731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8006,13 @@
         <v>465373</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H26" s="7">
         <v>1025</v>
@@ -8033,13 +8021,13 @@
         <v>560262</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M26" s="7">
         <v>1699</v>
@@ -8048,13 +8036,13 @@
         <v>1025635</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8125,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8152,13 +8140,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8161,13 @@
         <v>493522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>512</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H29" s="7">
         <v>1073</v>
@@ -8188,13 +8176,13 @@
         <v>714935</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M29" s="7">
         <v>1701</v>
@@ -8203,13 +8191,13 @@
         <v>1208457</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>518</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8212,13 @@
         <v>2883192</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>521</v>
+        <v>285</v>
       </c>
       <c r="H30" s="7">
         <v>4276</v>
@@ -8239,13 +8227,13 @@
         <v>3082661</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M30" s="7">
         <v>7015</v>
@@ -8254,13 +8242,13 @@
         <v>5965853</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627DF565-277E-443A-BAF0-026C8F408F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EE2C11-E882-447A-8792-6D05D6E14A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DCA26FA-C125-4B4D-B951-D87FFD37346B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8389F739-51CC-4AAB-806F-20AFF8A7340E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="522">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1504 +95,1498 @@
     <t>0,73%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
   </si>
   <si>
     <t>80,51%</t>
@@ -2022,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456BF9AC-A330-4C3E-B0B0-30DBBC49B1A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D11A9F1-0ADE-483A-9D40-3CB84596E31A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3481,7 +3475,7 @@
         <v>2947</v>
       </c>
       <c r="D30" s="7">
-        <v>3016832</v>
+        <v>3016831</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>152</v>
@@ -3532,7 +3526,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>34</v>
@@ -3598,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D377A2-5E3A-40C0-B944-C021ABE3A3D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E611510-E839-4479-A444-D1973E059B4F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,10 +4006,10 @@
         <v>180</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4024,13 @@
         <v>671306</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -4045,13 +4039,13 @@
         <v>602307</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>1217</v>
@@ -4060,13 +4054,13 @@
         <v>1273613</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4179,13 @@
         <v>39460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4200,13 +4194,13 @@
         <v>27821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4215,13 +4209,13 @@
         <v>67282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4230,13 @@
         <v>642403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>639</v>
@@ -4251,13 +4245,13 @@
         <v>681753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
@@ -4266,13 +4260,13 @@
         <v>1324155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4361,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4376,7 +4370,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4385,13 @@
         <v>56160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4406,13 +4400,13 @@
         <v>76240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -4421,13 +4415,13 @@
         <v>132400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4436,13 @@
         <v>557048</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>472</v>
@@ -4457,13 +4451,13 @@
         <v>538024</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>968</v>
@@ -4472,13 +4466,13 @@
         <v>1095072</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,7 +4561,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4597,13 +4591,13 @@
         <v>83233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -4612,13 +4606,13 @@
         <v>115465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -4627,13 +4621,13 @@
         <v>198699</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4642,13 @@
         <v>346196</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -4663,13 +4657,13 @@
         <v>332335</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>619</v>
@@ -4678,13 +4672,13 @@
         <v>678530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4803,13 +4797,13 @@
         <v>194039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -4818,13 +4812,13 @@
         <v>261431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -4833,13 +4827,13 @@
         <v>455469</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4848,13 @@
         <v>365598</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>450</v>
@@ -4869,13 +4863,13 @@
         <v>481544</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M26" s="7">
         <v>781</v>
@@ -4884,13 +4878,13 @@
         <v>847143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5003,13 @@
         <v>388674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H29" s="7">
         <v>452</v>
@@ -5024,13 +5018,13 @@
         <v>490840</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M29" s="7">
         <v>802</v>
@@ -5039,13 +5033,13 @@
         <v>879514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5054,13 @@
         <v>3036696</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="H30" s="7">
         <v>2844</v>
@@ -5075,13 +5069,13 @@
         <v>3064258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M30" s="7">
         <v>5702</v>
@@ -5090,13 +5084,13 @@
         <v>6100955</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E8F685-D680-44A5-BBF7-0CF76A04C2A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ABD604-212F-4A89-8576-107F8C940AD1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5319,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5355,7 +5349,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5370,7 +5364,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5385,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,7 +5397,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -5418,7 +5412,7 @@
         <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>30</v>
@@ -5430,10 +5424,10 @@
         <v>813271</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>30</v>
@@ -5525,7 +5519,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5540,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5549,13 @@
         <v>12463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5570,13 +5564,13 @@
         <v>8659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -5588,10 +5582,10 @@
         <v>180</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5600,13 @@
         <v>578033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>570</v>
@@ -5621,13 +5615,13 @@
         <v>554885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>1126</v>
@@ -5636,13 +5630,13 @@
         <v>1132918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5761,13 +5755,13 @@
         <v>30511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5776,13 +5770,13 @@
         <v>17826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -5791,13 +5785,13 @@
         <v>48338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5806,13 @@
         <v>638586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -5827,13 +5821,13 @@
         <v>643560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>1257</v>
@@ -5842,13 +5836,13 @@
         <v>1282145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5967,13 +5961,13 @@
         <v>64925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5982,13 +5976,13 @@
         <v>69059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -5997,13 +5991,13 @@
         <v>133984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6012,13 @@
         <v>581123</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -6033,28 +6027,28 @@
         <v>580018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>1058</v>
       </c>
       <c r="N18" s="7">
-        <v>1161142</v>
+        <v>1161141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,7 +6090,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -6143,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6173,13 +6167,13 @@
         <v>94827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -6188,13 +6182,13 @@
         <v>119463</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -6203,13 +6197,13 @@
         <v>214289</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6218,13 @@
         <v>383091</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>330</v>
@@ -6239,13 +6233,13 @@
         <v>377386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>671</v>
@@ -6254,13 +6248,13 @@
         <v>760478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6373,13 @@
         <v>185016</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>213</v>
@@ -6394,13 +6388,13 @@
         <v>253441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -6409,13 +6403,13 @@
         <v>438457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6424,13 @@
         <v>406312</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>442</v>
@@ -6445,13 +6439,13 @@
         <v>524490</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>870</v>
@@ -6460,13 +6454,13 @@
         <v>930802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6579,13 @@
         <v>388798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>411</v>
@@ -6600,13 +6594,13 @@
         <v>469338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>792</v>
@@ -6615,13 +6609,13 @@
         <v>858136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6630,13 @@
         <v>3005552</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>2927</v>
@@ -6651,13 +6645,13 @@
         <v>3075204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M30" s="7">
         <v>5777</v>
@@ -6666,13 +6660,13 @@
         <v>6080756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374CD39-4DDA-4C04-B4E8-14CE1AFB8B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BF681F-642E-4AFD-9726-0347CAA22C22}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6880,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6895,7 +6889,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6910,7 +6904,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6940,13 +6934,13 @@
         <v>6032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6955,13 +6949,13 @@
         <v>6032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,7 +6973,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>34</v>
@@ -6991,13 +6985,13 @@
         <v>348925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -7006,13 +7000,13 @@
         <v>726604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7080,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7095,13 +7089,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7110,7 +7104,7 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -7131,13 +7125,13 @@
         <v>6095</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -7146,10 +7140,10 @@
         <v>11205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>66</v>
@@ -7161,13 +7155,13 @@
         <v>17301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,10 +7176,10 @@
         <v>422301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>168</v>
@@ -7197,13 +7191,13 @@
         <v>487372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>747</v>
@@ -7212,13 +7206,13 @@
         <v>909673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7286,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7301,13 +7295,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7316,13 +7310,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7331,13 @@
         <v>27396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -7352,13 +7346,13 @@
         <v>7467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -7367,13 +7361,13 @@
         <v>34863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,13 +7382,13 @@
         <v>527392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>828</v>
@@ -7403,13 +7397,13 @@
         <v>575290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>1345</v>
@@ -7418,13 +7412,13 @@
         <v>1102682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,7 +7501,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7528,7 +7522,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7537,13 @@
         <v>90738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -7558,13 +7552,13 @@
         <v>81175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -7573,13 +7567,13 @@
         <v>171914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,13 +7588,13 @@
         <v>633252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H18" s="7">
         <v>1025</v>
@@ -7609,13 +7603,13 @@
         <v>664833</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>1601</v>
@@ -7624,13 +7618,13 @@
         <v>1298084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7707,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7728,13 +7722,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7743,13 @@
         <v>140846</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H21" s="7">
         <v>253</v>
@@ -7764,13 +7758,13 @@
         <v>146771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M21" s="7">
         <v>412</v>
@@ -7779,13 +7773,13 @@
         <v>287617</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7794,13 @@
         <v>457196</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>745</v>
@@ -7815,13 +7809,13 @@
         <v>445978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>1247</v>
@@ -7830,13 +7824,13 @@
         <v>903175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,7 +7919,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7940,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7949,13 @@
         <v>228447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>484</v>
       </c>
       <c r="H25" s="7">
         <v>676</v>
@@ -7970,13 +7964,13 @@
         <v>462284</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M25" s="7">
         <v>1025</v>
@@ -7985,13 +7979,13 @@
         <v>690731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +8000,13 @@
         <v>465373</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
         <v>1025</v>
@@ -8021,13 +8015,13 @@
         <v>560262</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
         <v>1699</v>
@@ -8036,13 +8030,13 @@
         <v>1025635</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8119,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8140,13 +8134,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8155,13 @@
         <v>493522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>505</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H29" s="7">
         <v>1073</v>
@@ -8176,13 +8170,13 @@
         <v>714935</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M29" s="7">
         <v>1701</v>
@@ -8191,13 +8185,13 @@
         <v>1208457</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,13 +8206,13 @@
         <v>2883192</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>285</v>
+        <v>515</v>
       </c>
       <c r="H30" s="7">
         <v>4276</v>
@@ -8227,13 +8221,13 @@
         <v>3082661</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M30" s="7">
         <v>7015</v>
@@ -8242,13 +8236,13 @@
         <v>5965853</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18076373-C224-4638-9744-87B320D8B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F194D4-E406-4709-BAFB-3F4BA9CDD323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{747EC9E3-3EEF-4828-BE0F-379ACB9C5764}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46DB60DB-A1F1-4D74-B60A-A53CEF629352}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="566">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -191,7 +191,7 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>4,36%</t>
@@ -248,7 +248,7 @@
     <t>96,97%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>10,27%</t>
@@ -305,7 +305,7 @@
     <t>92,45%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>17,68%</t>
@@ -362,1150 +362,1381 @@
     <t>83,03%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>75,02%</t>
   </si>
   <si>
     <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
   </si>
 </sst>
 </file>
@@ -1917,8 +2148,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFDB6A0-96D8-4789-B8E6-85B8EDA80CB4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2D2C80-B815-46D7-B5ED-BA6048260345}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2810,10 +3041,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>101788</v>
+        <v>57406</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2825,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="I19" s="7">
-        <v>182304</v>
+        <v>96269</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2840,10 +3071,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="N19" s="7">
-        <v>284093</v>
+        <v>153675</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2861,10 +3092,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>415</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>400678</v>
+        <v>235177</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2876,10 +3107,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>485</v>
+        <v>268</v>
       </c>
       <c r="I20" s="7">
-        <v>494538</v>
+        <v>246665</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2891,10 +3122,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>900</v>
+        <v>509</v>
       </c>
       <c r="N20" s="7">
-        <v>895215</v>
+        <v>481842</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2912,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2927,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2942,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2959,55 +3190,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>259712</v>
+        <v>44382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7">
-        <v>348181</v>
+        <v>86036</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>602</v>
+        <v>119</v>
       </c>
       <c r="N22" s="7">
-        <v>607893</v>
+        <v>130418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,49 +3247,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2947</v>
+        <v>174</v>
       </c>
       <c r="D23" s="7">
-        <v>3016832</v>
+        <v>165501</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2962</v>
+        <v>217</v>
       </c>
       <c r="I23" s="7">
-        <v>3031017</v>
+        <v>247872</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5909</v>
+        <v>391</v>
       </c>
       <c r="N23" s="7">
-        <v>6047847</v>
+        <v>413373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,63 +3298,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>267</v>
+      </c>
+      <c r="D25" s="7">
+        <v>259712</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>335</v>
+      </c>
+      <c r="I25" s="7">
+        <v>348181</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>602</v>
+      </c>
+      <c r="N25" s="7">
+        <v>607893</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2947</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3016831</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2962</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3031016</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5909</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6047848</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3136,8 +3523,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64C17E-21CC-408E-9958-7D31C627EE8C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4255A-5DB3-4176-8643-4AA99CE9180B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3153,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,10 +3650,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3275,13 +3662,13 @@
         <v>1934</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3290,13 +3677,13 @@
         <v>1934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3701,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3326,10 +3713,10 @@
         <v>428296</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3341,10 +3728,10 @@
         <v>882442</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3415,13 +3802,13 @@
         <v>15781</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3430,13 +3817,13 @@
         <v>7948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3445,13 +3832,13 @@
         <v>23729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3853,13 @@
         <v>671306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -3481,13 +3868,13 @@
         <v>602307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>1217</v>
@@ -3496,10 +3883,10 @@
         <v>1273613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -3570,13 +3957,13 @@
         <v>39460</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3585,13 +3972,13 @@
         <v>27821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3600,13 +3987,13 @@
         <v>67282</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +4008,13 @@
         <v>642403</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>639</v>
@@ -3636,13 +4023,13 @@
         <v>681753</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -3651,13 +4038,13 @@
         <v>1324155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +4112,13 @@
         <v>56160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3740,13 +4127,13 @@
         <v>76240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -3755,13 +4142,13 @@
         <v>132400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +4163,13 @@
         <v>557048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>472</v>
@@ -3791,13 +4178,13 @@
         <v>538024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>968</v>
@@ -3806,13 +4193,13 @@
         <v>1095072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +4267,13 @@
         <v>83233</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -3895,13 +4282,13 @@
         <v>115465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -3910,13 +4297,13 @@
         <v>198699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +4318,13 @@
         <v>346196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -3946,13 +4333,13 @@
         <v>332335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>619</v>
@@ -3961,13 +4348,13 @@
         <v>678530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4416,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7">
-        <v>194039</v>
+        <v>112434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>261431</v>
+        <v>124269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
-        <v>417</v>
+        <v>221</v>
       </c>
       <c r="N19" s="7">
-        <v>455469</v>
+        <v>236703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,49 +4467,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="D20" s="7">
-        <v>365598</v>
+        <v>197352</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
-        <v>450</v>
+        <v>224</v>
       </c>
       <c r="I20" s="7">
-        <v>481544</v>
+        <v>229727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
-        <v>781</v>
+        <v>405</v>
       </c>
       <c r="N20" s="7">
-        <v>847143</v>
+        <v>427079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4146,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4161,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4178,55 +4565,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>388674</v>
+        <v>81604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
-        <v>452</v>
+        <v>124</v>
       </c>
       <c r="I22" s="7">
-        <v>490840</v>
+        <v>137162</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
-        <v>802</v>
+        <v>196</v>
       </c>
       <c r="N22" s="7">
-        <v>879514</v>
+        <v>218766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +4622,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2858</v>
+        <v>150</v>
       </c>
       <c r="D23" s="7">
-        <v>3036696</v>
+        <v>168247</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
-        <v>2844</v>
+        <v>226</v>
       </c>
       <c r="I23" s="7">
-        <v>3064258</v>
+        <v>251817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
-        <v>5702</v>
+        <v>376</v>
       </c>
       <c r="N23" s="7">
-        <v>6100955</v>
+        <v>420064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,63 +4673,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>350</v>
+      </c>
+      <c r="D25" s="7">
+        <v>388674</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="7">
+        <v>452</v>
+      </c>
+      <c r="I25" s="7">
+        <v>490840</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" s="7">
+        <v>802</v>
+      </c>
+      <c r="N25" s="7">
+        <v>879514</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2858</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3036696</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2844</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3064258</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5702</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6100955</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425370</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980469</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4355,8 +4898,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B151602-DCC1-41BB-B585-57AF8C185B33}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E08C53-11AE-485A-961C-B7FF3A0BF0C1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4372,7 +4915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4485,7 +5028,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4494,13 +5037,13 @@
         <v>890</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4509,13 +5052,13 @@
         <v>1947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +5076,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4545,10 +5088,10 @@
         <v>394865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4560,10 +5103,10 @@
         <v>813271</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -4634,13 +5177,13 @@
         <v>12463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4649,13 +5192,13 @@
         <v>8659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4664,13 +5207,13 @@
         <v>21122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +5228,13 @@
         <v>578033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -4700,13 +5243,13 @@
         <v>554885</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -4715,13 +5258,13 @@
         <v>1132918</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +5332,13 @@
         <v>30511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4804,13 +5347,13 @@
         <v>17826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -4819,13 +5362,13 @@
         <v>48338</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +5383,13 @@
         <v>638586</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -4855,13 +5398,13 @@
         <v>643560</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>1257</v>
@@ -4870,13 +5413,13 @@
         <v>1282145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +5487,13 @@
         <v>64925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4959,13 +5502,13 @@
         <v>69059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -4974,13 +5517,13 @@
         <v>133984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5538,13 @@
         <v>581123</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -5010,13 +5553,13 @@
         <v>580018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>1058</v>
@@ -5025,13 +5568,13 @@
         <v>1161141</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5642,13 @@
         <v>94827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -5114,13 +5657,13 @@
         <v>119463</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -5129,13 +5672,13 @@
         <v>214289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5693,13 @@
         <v>383091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>330</v>
@@ -5165,13 +5708,13 @@
         <v>377386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -5180,13 +5723,13 @@
         <v>760478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5791,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7">
-        <v>185016</v>
+        <v>105384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="I19" s="7">
-        <v>253441</v>
+        <v>117394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
-        <v>412</v>
+        <v>215</v>
       </c>
       <c r="N19" s="7">
-        <v>438457</v>
+        <v>222778</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5842,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>428</v>
+        <v>221</v>
       </c>
       <c r="D20" s="7">
-        <v>406312</v>
+        <v>228946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="I20" s="7">
-        <v>524490</v>
+        <v>260368</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
-        <v>870</v>
+        <v>464</v>
       </c>
       <c r="N20" s="7">
-        <v>930802</v>
+        <v>489314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5365,10 +5908,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5380,10 +5923,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5397,55 +5940,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>381</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7">
-        <v>388798</v>
+        <v>79632</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
-        <v>411</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7">
-        <v>469338</v>
+        <v>136047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
-        <v>792</v>
+        <v>197</v>
       </c>
       <c r="N22" s="7">
-        <v>858136</v>
+        <v>215679</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,49 +5997,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2850</v>
+        <v>207</v>
       </c>
       <c r="D23" s="7">
-        <v>3005552</v>
+        <v>177366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
-        <v>2927</v>
+        <v>199</v>
       </c>
       <c r="I23" s="7">
-        <v>3075204</v>
+        <v>264122</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
-        <v>5777</v>
+        <v>406</v>
       </c>
       <c r="N23" s="7">
-        <v>6080756</v>
+        <v>441488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,63 +6048,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>381</v>
+      </c>
+      <c r="D25" s="7">
+        <v>388798</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="7">
+        <v>411</v>
+      </c>
+      <c r="I25" s="7">
+        <v>469338</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M25" s="7">
+        <v>792</v>
+      </c>
+      <c r="N25" s="7">
+        <v>858136</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2850</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3005552</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2927</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3075204</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5777</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6080756</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5574,8 +6273,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBFF0F8-A80E-49F5-A5E4-D975F0096317}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7096DF0-12CE-407E-A4D4-D58FF396DD35}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5591,7 +6290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5701,40 +6400,40 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>6032</v>
+        <v>4935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>6032</v>
+        <v>4935</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +6445,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5761,31 +6460,31 @@
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>348925</v>
+        <v>308265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>726604</v>
+        <v>708252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>443</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,7 +6496,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5812,7 +6511,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5827,7 +6526,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5850,46 +6549,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>6095</v>
+        <v>5342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>11205</v>
+        <v>10520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>17301</v>
+        <v>15862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,46 +6600,46 @@
         <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>422301</v>
+        <v>418205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>487372</v>
+        <v>500984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
       </c>
       <c r="N8" s="7">
-        <v>909672</v>
+        <v>919189</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,7 +6651,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5967,7 +6666,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5982,7 +6681,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6005,46 +6704,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>27396</v>
+        <v>26660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>7467</v>
+        <v>6906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>34863</v>
+        <v>33567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,28 +6755,28 @@
         <v>517</v>
       </c>
       <c r="D11" s="7">
-        <v>527392</v>
+        <v>507272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
       </c>
       <c r="I11" s="7">
-        <v>575291</v>
+        <v>534893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -6086,16 +6785,16 @@
         <v>1345</v>
       </c>
       <c r="N11" s="7">
-        <v>1102682</v>
+        <v>1042164</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6806,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>554788</v>
+        <v>533932</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6122,7 +6821,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6137,7 +6836,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1137545</v>
+        <v>1075731</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6160,46 +6859,46 @@
         <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>90738</v>
+        <v>86878</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
       </c>
       <c r="I13" s="7">
-        <v>81175</v>
+        <v>73690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
       </c>
       <c r="N13" s="7">
-        <v>171914</v>
+        <v>160567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,46 +6910,46 @@
         <v>576</v>
       </c>
       <c r="D14" s="7">
-        <v>633252</v>
+        <v>800908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>1025</v>
       </c>
       <c r="I14" s="7">
-        <v>664833</v>
+        <v>638004</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>1601</v>
       </c>
       <c r="N14" s="7">
-        <v>1298084</v>
+        <v>1438913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,7 +6961,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6277,7 +6976,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>746008</v>
+        <v>711694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6292,7 +6991,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469998</v>
+        <v>1599480</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6315,46 +7014,46 @@
         <v>159</v>
       </c>
       <c r="D16" s="7">
-        <v>140846</v>
+        <v>132761</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
       </c>
       <c r="I16" s="7">
-        <v>146771</v>
+        <v>135509</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="M16" s="7">
         <v>412</v>
       </c>
       <c r="N16" s="7">
-        <v>287617</v>
+        <v>268270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,46 +7065,46 @@
         <v>502</v>
       </c>
       <c r="D17" s="7">
-        <v>457196</v>
+        <v>426514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="H17" s="7">
         <v>745</v>
       </c>
       <c r="I17" s="7">
-        <v>445979</v>
+        <v>408600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="M17" s="7">
         <v>1247</v>
       </c>
       <c r="N17" s="7">
-        <v>903175</v>
+        <v>835114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +7116,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598042</v>
+        <v>559275</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6432,7 +7131,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592750</v>
+        <v>544109</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6447,7 +7146,7 @@
         <v>1659</v>
       </c>
       <c r="N18" s="7">
-        <v>1190792</v>
+        <v>1103384</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6467,49 +7166,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="D19" s="7">
-        <v>228447</v>
+        <v>110601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
-        <v>676</v>
+        <v>293</v>
       </c>
       <c r="I19" s="7">
-        <v>462284</v>
+        <v>346632</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
-        <v>1025</v>
+        <v>468</v>
       </c>
       <c r="N19" s="7">
-        <v>690731</v>
+        <v>457233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,49 +7217,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>674</v>
+        <v>391</v>
       </c>
       <c r="D20" s="7">
-        <v>465373</v>
+        <v>254756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
-        <v>1025</v>
+        <v>532</v>
       </c>
       <c r="I20" s="7">
-        <v>560262</v>
+        <v>260597</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="M20" s="7">
-        <v>1699</v>
+        <v>923</v>
       </c>
       <c r="N20" s="7">
-        <v>1025635</v>
+        <v>515353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,10 +7268,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1023</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7">
-        <v>693820</v>
+        <v>365357</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6584,10 +7283,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1701</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1022546</v>
+        <v>607229</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6599,10 +7298,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2724</v>
+        <v>1391</v>
       </c>
       <c r="N21" s="7">
-        <v>1716366</v>
+        <v>972586</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6616,55 +7315,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>628</v>
+        <v>174</v>
       </c>
       <c r="D22" s="7">
-        <v>493522</v>
+        <v>102408</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
-        <v>1073</v>
+        <v>383</v>
       </c>
       <c r="I22" s="7">
-        <v>714935</v>
+        <v>178127</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
-        <v>1701</v>
+        <v>557</v>
       </c>
       <c r="N22" s="7">
-        <v>1208457</v>
+        <v>280535</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,49 +7372,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2739</v>
+        <v>283</v>
       </c>
       <c r="D23" s="7">
-        <v>2883192</v>
+        <v>179487</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="H23" s="7">
-        <v>4276</v>
+        <v>493</v>
       </c>
       <c r="I23" s="7">
-        <v>3082661</v>
+        <v>245194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="M23" s="7">
-        <v>7015</v>
+        <v>776</v>
       </c>
       <c r="N23" s="7">
-        <v>5965853</v>
+        <v>424680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>546</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,63 +7423,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281895</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>876</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423321</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705215</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>628</v>
+      </c>
+      <c r="D25" s="7">
+        <v>464651</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1073</v>
+      </c>
+      <c r="I25" s="7">
+        <v>756318</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1701</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1220969</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2739</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2987129</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4276</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2896537</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7015</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5883666</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3367</v>
       </c>
-      <c r="D24" s="7">
-        <v>3376714</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3451780</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5349</v>
       </c>
-      <c r="I24" s="7">
-        <v>3797596</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3652855</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8716</v>
       </c>
-      <c r="N24" s="7">
-        <v>7174310</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7104635</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
